--- a/results/WI/wi_enresults.xlsx
+++ b/results/WI/wi_enresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MEDSL\election_night2020\results\WI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7932455-86D9-4AC4-8BB2-CE6B6DB59376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075A5957-B3C9-4222-B102-9A4384C3B596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{38E14651-B408-4A22-A74E-8B15B3260839}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="14" xr2:uid="{38E14651-B408-4A22-A74E-8B15B3260839}"/>
   </bookViews>
   <sheets>
     <sheet name="10 PM" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,8 @@
     <sheet name="940 aM" sheetId="15" r:id="rId12"/>
     <sheet name="1030 am" sheetId="16" r:id="rId13"/>
     <sheet name="240 pm" sheetId="17" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId15"/>
+    <sheet name="11051115am" sheetId="19" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="196">
   <si>
     <t>Columbia</t>
   </si>
@@ -621,13 +622,28 @@
   </si>
   <si>
     <t>R+19.2</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>2016 margin</t>
+  </si>
+  <si>
+    <t>Est. votes reported</t>
+  </si>
+  <si>
+    <t>Total votes</t>
+  </si>
+  <si>
+    <t>Absentee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +711,12 @@
       <color rgb="FF1375B7"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -751,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -830,6 +852,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5702,8 +5736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116E8C3C-1CEA-4850-A89C-DDC67EF88020}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6741,1312 +6775,2595 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BDB344-3100-4E30-B91C-F2183713A18E}">
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10">
+        <v>7362</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4329</v>
+      </c>
+      <c r="D2" s="11">
+        <v>11808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3845</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4794</v>
+      </c>
+      <c r="D3" s="12">
+        <v>8744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8">
+        <v>15797</v>
+      </c>
+      <c r="C4" s="8">
+        <v>9188</v>
+      </c>
+      <c r="D4" s="12">
+        <v>25333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4617</v>
+      </c>
+      <c r="C5" s="8">
+        <v>6155</v>
+      </c>
+      <c r="D5" s="12">
+        <v>10885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8">
+        <v>75865</v>
+      </c>
+      <c r="C6" s="8">
+        <v>65509</v>
+      </c>
+      <c r="D6" s="12">
+        <v>144011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4834</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2859</v>
+      </c>
+      <c r="D7" s="12">
+        <v>7811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6461</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3569</v>
+      </c>
+      <c r="D8" s="12">
+        <v>10141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8">
+        <v>18142</v>
+      </c>
+      <c r="C9" s="8">
+        <v>12115</v>
+      </c>
+      <c r="D9" s="12">
+        <v>30858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8">
+        <v>21316</v>
+      </c>
+      <c r="C10" s="8">
+        <v>14001</v>
+      </c>
+      <c r="D10" s="12">
+        <v>35945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10001</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4520</v>
+      </c>
+      <c r="D11" s="12">
+        <v>14873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8">
+        <v>16925</v>
+      </c>
+      <c r="C12" s="8">
+        <v>16408</v>
+      </c>
+      <c r="D12" s="12">
+        <v>33917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4620</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3953</v>
+      </c>
+      <c r="D13" s="12">
+        <v>8698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8">
+        <v>78789</v>
+      </c>
+      <c r="C14" s="8">
+        <v>260157</v>
+      </c>
+      <c r="D14" s="12">
+        <v>344745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="8">
+        <v>31354</v>
+      </c>
+      <c r="C15" s="8">
+        <v>16355</v>
+      </c>
+      <c r="D15" s="12">
+        <v>48497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8">
+        <v>9752</v>
+      </c>
+      <c r="C16" s="8">
+        <v>10044</v>
+      </c>
+      <c r="D16" s="12">
+        <v>20117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="8">
+        <v>10919</v>
+      </c>
+      <c r="C17" s="8">
+        <v>13214</v>
+      </c>
+      <c r="D17" s="12">
+        <v>24668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="8">
+        <v>13176</v>
+      </c>
+      <c r="C18" s="8">
+        <v>9909</v>
+      </c>
+      <c r="D18" s="12">
+        <v>23543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="8">
+        <v>25339</v>
+      </c>
+      <c r="C19" s="8">
+        <v>31617</v>
+      </c>
+      <c r="D19" s="12">
+        <v>58235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2133</v>
+      </c>
+      <c r="C20" s="7">
+        <v>781</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="8">
+        <v>35754</v>
+      </c>
+      <c r="C21" s="8">
+        <v>20588</v>
+      </c>
+      <c r="D21" s="12">
+        <v>57322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3287</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1722</v>
+      </c>
+      <c r="D22" s="12">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="8">
+        <v>13981</v>
+      </c>
+      <c r="C23" s="8">
+        <v>10942</v>
+      </c>
+      <c r="D23" s="12">
+        <v>25379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="8">
+        <v>10165</v>
+      </c>
+      <c r="C24" s="8">
+        <v>10850</v>
+      </c>
+      <c r="D24" s="12">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="8">
+        <v>7165</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3344</v>
+      </c>
+      <c r="D25" s="12">
+        <v>10663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="8">
+        <v>5907</v>
+      </c>
+      <c r="C26" s="8">
+        <v>7828</v>
+      </c>
+      <c r="D26" s="12">
+        <v>13984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2439</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1533</v>
+      </c>
+      <c r="D27" s="12">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8">
+        <v>5789</v>
+      </c>
+      <c r="C28" s="8">
+        <v>4255</v>
+      </c>
+      <c r="D28" s="12">
+        <v>10187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8">
+        <v>27209</v>
+      </c>
+      <c r="C29" s="8">
+        <v>19904</v>
+      </c>
+      <c r="D29" s="12">
+        <v>47967</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="8">
+        <v>8749</v>
+      </c>
+      <c r="C30" s="8">
+        <v>4747</v>
+      </c>
+      <c r="D30" s="12">
+        <v>13702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="8">
+        <v>44972</v>
+      </c>
+      <c r="C31" s="8">
+        <v>42191</v>
+      </c>
+      <c r="D31" s="12">
+        <v>88691</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="8">
+        <v>7927</v>
+      </c>
+      <c r="C32" s="8">
+        <v>3977</v>
+      </c>
+      <c r="D32" s="12">
+        <v>12071</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="8">
+        <v>28661</v>
+      </c>
+      <c r="C33" s="8">
+        <v>37817</v>
+      </c>
+      <c r="D33" s="12">
+        <v>67798</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4820</v>
+      </c>
+      <c r="C34" s="8">
+        <v>3647</v>
+      </c>
+      <c r="D34" s="12">
+        <v>8557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="8">
+        <v>7330</v>
+      </c>
+      <c r="C35" s="8">
+        <v>3703</v>
+      </c>
+      <c r="D35" s="12">
+        <v>11159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="8">
+        <v>10017</v>
+      </c>
+      <c r="C36" s="8">
+        <v>6260</v>
+      </c>
+      <c r="D36" s="12">
+        <v>16531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="8">
+        <v>27217</v>
+      </c>
+      <c r="C37" s="8">
+        <v>16815</v>
+      </c>
+      <c r="D37" s="12">
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="8">
+        <v>44623</v>
+      </c>
+      <c r="C38" s="8">
+        <v>30807</v>
+      </c>
+      <c r="D38" s="12">
+        <v>76741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="8">
+        <v>15303</v>
+      </c>
+      <c r="C39" s="8">
+        <v>7363</v>
+      </c>
+      <c r="D39" s="12">
+        <v>22977</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="8">
+        <v>5719</v>
+      </c>
+      <c r="C40" s="8">
+        <v>3239</v>
+      </c>
+      <c r="D40" s="12">
+        <v>9060</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="7">
+        <v>278</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1303</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="8">
+        <v>134355</v>
+      </c>
+      <c r="C42" s="8">
+        <v>317251</v>
+      </c>
+      <c r="D42" s="12">
+        <v>458935</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="8">
+        <v>13775</v>
+      </c>
+      <c r="C43" s="8">
+        <v>8432</v>
+      </c>
+      <c r="D43" s="12">
+        <v>22564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="8">
+        <v>16226</v>
+      </c>
+      <c r="C44" s="8">
+        <v>6715</v>
+      </c>
+      <c r="D44" s="12">
+        <v>23214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="8">
+        <v>13671</v>
+      </c>
+      <c r="C45" s="8">
+        <v>10105</v>
+      </c>
+      <c r="D45" s="12">
+        <v>24159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="8">
+        <v>58379</v>
+      </c>
+      <c r="C46" s="8">
+        <v>47659</v>
+      </c>
+      <c r="D46" s="12">
+        <v>108223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="8">
+        <v>33912</v>
+      </c>
+      <c r="C47" s="8">
+        <v>26515</v>
+      </c>
+      <c r="D47" s="12">
+        <v>61453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="8">
+        <v>2584</v>
+      </c>
+      <c r="C48" s="8">
+        <v>1489</v>
+      </c>
+      <c r="D48" s="12">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="8">
+        <v>12813</v>
+      </c>
+      <c r="C49" s="8">
+        <v>9789</v>
+      </c>
+      <c r="D49" s="12">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="8">
+        <v>16590</v>
+      </c>
+      <c r="C50" s="8">
+        <v>9361</v>
+      </c>
+      <c r="D50" s="12">
+        <v>26326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="8">
+        <v>19298</v>
+      </c>
+      <c r="C51" s="8">
+        <v>20426</v>
+      </c>
+      <c r="D51" s="12">
+        <v>40601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="8">
+        <v>5394</v>
+      </c>
+      <c r="C52" s="8">
+        <v>3132</v>
+      </c>
+      <c r="D52" s="12">
+        <v>8645</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="8">
+        <v>54475</v>
+      </c>
+      <c r="C53" s="8">
+        <v>50154</v>
+      </c>
+      <c r="D53" s="12">
+        <v>106441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="8">
+        <v>4877</v>
+      </c>
+      <c r="C54" s="8">
+        <v>3995</v>
+      </c>
+      <c r="D54" s="12">
+        <v>9016</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="8">
+        <v>37133</v>
+      </c>
+      <c r="C55" s="8">
+        <v>46649</v>
+      </c>
+      <c r="D55" s="12">
+        <v>85348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="8">
+        <v>5257</v>
+      </c>
+      <c r="C56" s="8">
+        <v>2517</v>
+      </c>
+      <c r="D56" s="12">
+        <v>7881</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="8">
+        <v>32190</v>
+      </c>
+      <c r="C57" s="8">
+        <v>23190</v>
+      </c>
+      <c r="D57" s="12">
+        <v>36249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="8">
+        <v>17489</v>
+      </c>
+      <c r="C58" s="8">
+        <v>18103</v>
+      </c>
+      <c r="D58" s="12">
+        <v>10479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="8">
+        <v>5883</v>
+      </c>
+      <c r="C59" s="8">
+        <v>4494</v>
+      </c>
+      <c r="D59" s="12">
+        <v>22878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="8">
+        <v>15447</v>
+      </c>
+      <c r="C60" s="8">
+        <v>7131</v>
+      </c>
+      <c r="D60" s="12">
+        <v>66020</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="8">
+        <v>37624</v>
+      </c>
+      <c r="C61" s="8">
+        <v>27109</v>
+      </c>
+      <c r="D61" s="12">
+        <v>56701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="8">
+        <v>7656</v>
+      </c>
+      <c r="C62" s="8">
+        <v>2693</v>
+      </c>
+      <c r="D62" s="12">
+        <v>10683</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="8">
+        <v>8828</v>
+      </c>
+      <c r="C63" s="8">
+        <v>6283</v>
+      </c>
+      <c r="D63" s="12">
+        <v>15356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="8">
+        <v>8216</v>
+      </c>
+      <c r="C64" s="8">
+        <v>7457</v>
+      </c>
+      <c r="D64" s="12">
+        <v>15910</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="8">
+        <v>9261</v>
+      </c>
+      <c r="C65" s="8">
+        <v>5903</v>
+      </c>
+      <c r="D65" s="12">
+        <v>15338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="8">
+        <v>33844</v>
+      </c>
+      <c r="C66" s="8">
+        <v>22783</v>
+      </c>
+      <c r="D66" s="12">
+        <v>57588</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="8">
+        <v>6332</v>
+      </c>
+      <c r="C67" s="8">
+        <v>3867</v>
+      </c>
+      <c r="D67" s="12">
+        <v>10371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="8">
+        <v>60235</v>
+      </c>
+      <c r="C68" s="8">
+        <v>26647</v>
+      </c>
+      <c r="D68" s="12">
+        <v>88254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="8">
+        <v>159633</v>
+      </c>
+      <c r="C69" s="8">
+        <v>103867</v>
+      </c>
+      <c r="D69" s="12">
+        <v>267957</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="8">
+        <v>18948</v>
+      </c>
+      <c r="C70" s="8">
+        <v>9699</v>
+      </c>
+      <c r="D70" s="12">
+        <v>29118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="8">
+        <v>9016</v>
+      </c>
+      <c r="C71" s="8">
+        <v>4388</v>
+      </c>
+      <c r="D71" s="12">
+        <v>13564</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="8">
+        <v>47795</v>
+      </c>
+      <c r="C72" s="8">
+        <v>44060</v>
+      </c>
+      <c r="D72" s="12">
+        <v>94032</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="8">
+        <v>24306</v>
+      </c>
+      <c r="C73" s="8">
+        <v>16360</v>
+      </c>
+      <c r="D73" s="12">
+        <v>41196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC376F3-A174-466A-8654-A7DDAF5F0EC2}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F72"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="G1" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
-      <c r="A2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="11">
+        <v>11808</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>87</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E3" s="23"/>
+      <c r="F3" s="12">
+        <v>8744</v>
+      </c>
       <c r="G3" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>89</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E4" s="23"/>
+      <c r="F4" s="12">
+        <v>25333</v>
+      </c>
       <c r="G4" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1">
       <c r="A5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>91</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="23"/>
+      <c r="F5" s="12">
+        <v>10885</v>
+      </c>
       <c r="G5" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1">
       <c r="A6" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="23"/>
+      <c r="F6" s="12">
+        <v>144011</v>
+      </c>
       <c r="G6" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1">
       <c r="A7" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E7" s="23"/>
+      <c r="F7" s="12">
+        <v>7811</v>
+      </c>
       <c r="G7" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1">
       <c r="A8" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E8" s="23"/>
+      <c r="F8" s="12">
+        <v>10141</v>
+      </c>
       <c r="G8" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" thickBot="1">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="23"/>
+      <c r="F9" s="12">
+        <v>30858</v>
+      </c>
       <c r="G9" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
+    <row r="10" spans="1:7" ht="27" thickBot="1">
       <c r="A10" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="12">
+        <v>35945</v>
+      </c>
       <c r="G10" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27" thickBot="1">
+    <row r="11" spans="1:7" ht="15" thickBot="1">
       <c r="A11" s="19" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="23"/>
+      <c r="F11" s="12">
+        <v>14873</v>
+      </c>
       <c r="G11" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" thickBot="1">
       <c r="A12" s="19" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E12" s="23"/>
+      <c r="F12" s="12">
+        <v>33917</v>
+      </c>
       <c r="G12" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1">
+    <row r="13" spans="1:7" ht="27" thickBot="1">
       <c r="A13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>106</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E13" s="23"/>
+      <c r="F13" s="12">
+        <v>8698</v>
+      </c>
       <c r="G13" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>108</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="23"/>
+      <c r="F14" s="12">
+        <v>344745</v>
+      </c>
       <c r="G14" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>109</v>
+        <v>24</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E15" s="23"/>
+      <c r="F15" s="12">
+        <v>48497</v>
+      </c>
       <c r="G15" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1">
       <c r="A16" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="23"/>
+      <c r="F16" s="12">
+        <v>20117</v>
+      </c>
       <c r="G16" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1">
       <c r="A17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>114</v>
+        <v>26</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E17" s="23"/>
+      <c r="F17" s="12">
+        <v>24668</v>
+      </c>
       <c r="G17" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27" thickBot="1">
+    <row r="18" spans="1:7" ht="15" thickBot="1">
       <c r="A18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>115</v>
+        <v>27</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E18" s="23"/>
+      <c r="F18" s="12">
+        <v>23543</v>
+      </c>
       <c r="G18" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" thickBot="1">
       <c r="A19" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>117</v>
+        <v>28</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E19" s="23"/>
+      <c r="F19" s="12">
+        <v>58235</v>
+      </c>
       <c r="G19" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27" thickBot="1">
       <c r="A20" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E20" s="23"/>
+      <c r="F20" s="12">
+        <v>2939</v>
+      </c>
       <c r="G20" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1">
+    <row r="21" spans="1:7" ht="27" thickBot="1">
       <c r="A21" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="23"/>
+      <c r="F21" s="12">
+        <v>57322</v>
+      </c>
       <c r="G21" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1">
       <c r="A22" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="23"/>
+      <c r="F22" s="12">
+        <v>5052</v>
+      </c>
       <c r="G22" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1">
       <c r="A23" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>123</v>
+        <v>32</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E23" s="23"/>
+      <c r="F23" s="12">
+        <v>25379</v>
+      </c>
       <c r="G23" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27" thickBot="1">
+    <row r="24" spans="1:7" ht="15" thickBot="1">
       <c r="A24" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>125</v>
+        <v>33</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E24" s="23"/>
+      <c r="F24" s="12">
+        <v>21400</v>
+      </c>
       <c r="G24" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1">
+    <row r="25" spans="1:7" ht="27" thickBot="1">
       <c r="A25" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>126</v>
+        <v>34</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E25" s="23"/>
+      <c r="F25" s="12">
+        <v>10663</v>
+      </c>
       <c r="G25" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1">
       <c r="A26" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E26" s="23"/>
+      <c r="F26" s="12">
+        <v>13984</v>
+      </c>
       <c r="G26" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27" thickBot="1">
+    <row r="27" spans="1:7" ht="15" thickBot="1">
       <c r="A27" s="19" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E27" s="23"/>
+      <c r="F27" s="12">
+        <v>4031</v>
+      </c>
       <c r="G27" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="27" thickBot="1">
       <c r="A28" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>129</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E28" s="23"/>
+      <c r="F28" s="12">
+        <v>10187</v>
+      </c>
       <c r="G28" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1">
+    <row r="29" spans="1:7" ht="27" thickBot="1">
       <c r="A29" s="19" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E29" s="23"/>
+      <c r="F29" s="12">
+        <v>47967</v>
+      </c>
       <c r="G29" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="27" thickBot="1">
+    <row r="30" spans="1:7" ht="15" thickBot="1">
       <c r="A30" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E30" s="23"/>
+      <c r="F30" s="12">
+        <v>13702</v>
+      </c>
       <c r="G30" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" thickBot="1">
       <c r="A31" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E31" s="23"/>
+      <c r="F31" s="12">
+        <v>88691</v>
+      </c>
       <c r="G31" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27" thickBot="1">
       <c r="A32" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>137</v>
+        <v>38</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E32" s="23"/>
+      <c r="F32" s="12">
+        <v>12071</v>
+      </c>
       <c r="G32" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="27" thickBot="1">
       <c r="A33" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>138</v>
+        <v>39</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E33" s="23"/>
+      <c r="F33" s="12">
+        <v>67798</v>
+      </c>
       <c r="G33" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="27" thickBot="1">
       <c r="A34" s="19" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E34" s="23"/>
+      <c r="F34" s="12">
+        <v>8557</v>
+      </c>
       <c r="G34" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1">
+    <row r="35" spans="1:7" ht="27" thickBot="1">
       <c r="A35" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="23"/>
+      <c r="F35" s="12">
+        <v>11159</v>
+      </c>
       <c r="G35" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="27" thickBot="1">
+    <row r="36" spans="1:7" ht="15" thickBot="1">
       <c r="A36" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>140</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E36" s="23"/>
+      <c r="F36" s="12">
+        <v>16531</v>
+      </c>
       <c r="G36" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="27" thickBot="1">
       <c r="A37" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E37" s="23"/>
+      <c r="F37" s="12">
+        <v>44806</v>
+      </c>
       <c r="G37" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="27" thickBot="1">
       <c r="A38" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E38" s="23"/>
+      <c r="F38" s="12">
+        <v>76741</v>
+      </c>
       <c r="G38" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="27" thickBot="1">
       <c r="A39" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E39" s="23"/>
+      <c r="F39" s="12">
+        <v>22977</v>
+      </c>
       <c r="G39" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="27" thickBot="1">
       <c r="A40" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>150</v>
+        <v>45</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E40" s="23"/>
+      <c r="F40" s="12">
+        <v>9060</v>
+      </c>
       <c r="G40" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="27" thickBot="1">
       <c r="A41" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E41" s="23"/>
+      <c r="F41" s="12">
+        <v>1586</v>
+      </c>
       <c r="G41" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1">
+    <row r="42" spans="1:7" ht="27" thickBot="1">
       <c r="A42" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>93</v>
+        <v>47</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E42" s="23"/>
+      <c r="F42" s="12">
+        <v>458935</v>
+      </c>
       <c r="G42" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1">
       <c r="A43" s="19" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E43" s="23"/>
+      <c r="F43" s="12">
+        <v>22564</v>
+      </c>
       <c r="G43" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1">
       <c r="A44" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="23"/>
+      <c r="F44" s="12">
+        <v>23214</v>
+      </c>
       <c r="G44" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="27" thickBot="1">
+    <row r="45" spans="1:7" ht="15" thickBot="1">
       <c r="A45" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E45" s="23"/>
+      <c r="F45" s="12">
+        <v>24159</v>
+      </c>
       <c r="G45" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="27" thickBot="1">
       <c r="A46" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E46" s="23"/>
+      <c r="F46" s="12">
+        <v>108223</v>
+      </c>
       <c r="G46" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1">
+    <row r="47" spans="1:7" ht="27" thickBot="1">
       <c r="A47" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E47" s="23"/>
+      <c r="F47" s="12">
+        <v>61453</v>
+      </c>
       <c r="G47" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1">
       <c r="A48" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E48" s="23"/>
+      <c r="F48" s="12">
+        <v>4140</v>
+      </c>
       <c r="G48" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1">
       <c r="A49" s="19" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E49" s="23"/>
+      <c r="F49" s="12">
+        <v>23336</v>
+      </c>
       <c r="G49" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1">
       <c r="A50" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E50" s="23"/>
+      <c r="F50" s="12">
+        <v>26326</v>
+      </c>
       <c r="G50" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1">
       <c r="A51" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>165</v>
+        <v>54</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E51" s="23"/>
+      <c r="F51" s="12">
+        <v>40601</v>
+      </c>
       <c r="G51" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1">
       <c r="A52" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E52" s="23"/>
+      <c r="F52" s="12">
+        <v>8645</v>
+      </c>
       <c r="G52" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="27" thickBot="1">
+    <row r="53" spans="1:7" ht="15" thickBot="1">
       <c r="A53" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E53" s="23"/>
+      <c r="F53" s="12">
+        <v>106441</v>
+      </c>
       <c r="G53" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1">
+    <row r="54" spans="1:7" ht="27" thickBot="1">
       <c r="A54" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>169</v>
+        <v>57</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E54" s="23"/>
+      <c r="F54" s="12">
+        <v>9016</v>
+      </c>
       <c r="G54" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1">
       <c r="A55" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E55" s="23"/>
+      <c r="F55" s="12">
+        <v>85348</v>
+      </c>
       <c r="G55" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1">
       <c r="A56" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>171</v>
+        <v>59</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>145</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E56" s="23"/>
+      <c r="F56" s="12">
+        <v>7881</v>
+      </c>
       <c r="G56" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1">
       <c r="A57" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>161</v>
+        <v>61</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E57" s="23"/>
+      <c r="F57" s="12">
+        <v>36249</v>
+      </c>
       <c r="G57" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="27" thickBot="1">
+    <row r="58" spans="1:7" ht="15" thickBot="1">
       <c r="A58" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E58" s="23"/>
+      <c r="F58" s="12">
+        <v>10479</v>
+      </c>
       <c r="G58" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="27" thickBot="1">
       <c r="A59" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E59" s="23"/>
+      <c r="F59" s="12">
+        <v>22878</v>
+      </c>
       <c r="G59" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="27" thickBot="1">
       <c r="A60" s="19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>173</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E60" s="23"/>
+      <c r="F60" s="12">
+        <v>66020</v>
+      </c>
       <c r="G60" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" thickBot="1">
+    <row r="61" spans="1:7" ht="27" thickBot="1">
       <c r="A61" s="19" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E61" s="23"/>
+      <c r="F61" s="12">
+        <v>56701</v>
+      </c>
       <c r="G61" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="27" thickBot="1">
+    <row r="62" spans="1:7" ht="15" thickBot="1">
       <c r="A62" s="19" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E62" s="23"/>
+      <c r="F62" s="12">
+        <v>10683</v>
+      </c>
       <c r="G62" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" thickBot="1">
+    <row r="63" spans="1:7" ht="27" thickBot="1">
       <c r="A63" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E63" s="23"/>
+      <c r="F63" s="12">
+        <v>15356</v>
+      </c>
       <c r="G63" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" thickBot="1">
       <c r="A64" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E64" s="23"/>
+      <c r="F64" s="12">
+        <v>15910</v>
+      </c>
       <c r="G64" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="27" thickBot="1">
+    <row r="65" spans="1:7" ht="15" thickBot="1">
       <c r="A65" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E65" s="23"/>
+      <c r="F65" s="12">
+        <v>15338</v>
+      </c>
       <c r="G65" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="27" thickBot="1">
       <c r="A66" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E66" s="23"/>
+      <c r="F66" s="12">
+        <v>57588</v>
+      </c>
       <c r="G66" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="27" thickBot="1">
       <c r="A67" s="19" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E67" s="23"/>
+      <c r="F67" s="12">
+        <v>10371</v>
+      </c>
       <c r="G67" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="27" thickBot="1">
       <c r="A68" s="19" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E68" s="23"/>
+      <c r="F68" s="12">
+        <v>88254</v>
+      </c>
       <c r="G68" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="27" thickBot="1">
       <c r="A69" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D69" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E69" s="23"/>
+      <c r="F69" s="12">
+        <v>267957</v>
+      </c>
       <c r="G69" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="27" thickBot="1">
       <c r="A70" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D70" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E70" s="23"/>
+      <c r="F70" s="12">
+        <v>29118</v>
+      </c>
       <c r="G70" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="27" thickBot="1">
       <c r="A71" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D71" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E71" s="23"/>
+      <c r="F71" s="12">
+        <v>13564</v>
+      </c>
       <c r="G71" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1">
+    <row r="72" spans="1:7" ht="27" thickBot="1">
       <c r="A72" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D72" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E72" s="23"/>
+      <c r="F72" s="12">
+        <v>94032</v>
+      </c>
       <c r="G72" s="24" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="73" spans="1:7" ht="15" thickBot="1">
+      <c r="A73" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E73" s="23"/>
+      <c r="F73" s="12">
+        <v>41196</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
